--- a/data/house/house.xlsx
+++ b/data/house/house.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CVC\Formation\Python\DataScience\tp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\conta\git-CVC\Formation\Python\Avance\GitPythonAdvanced\data\house\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E745C0C-46C8-4C40-A5DC-3956CDC4F8F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="6495" yWindow="-11640" windowWidth="15600" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="house - Copie" sheetId="1" r:id="rId1"/>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -539,11 +540,11 @@
     <cellStyle name="Avertissement" xfId="14" builtinId="11" customBuiltin="1"/>
     <cellStyle name="Calcul" xfId="11" builtinId="22" customBuiltin="1"/>
     <cellStyle name="Cellule liée" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Commentaire" xfId="15" builtinId="10" customBuiltin="1"/>
     <cellStyle name="Entrée" xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Insatisfaisant" xfId="7" builtinId="27" customBuiltin="1"/>
     <cellStyle name="Neutre" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
     <cellStyle name="Satisfaisant" xfId="6" builtinId="26" customBuiltin="1"/>
     <cellStyle name="Sortie" xfId="10" builtinId="21" customBuiltin="1"/>
     <cellStyle name="Texte explicatif" xfId="16" builtinId="53" customBuiltin="1"/>
@@ -830,14 +831,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B546"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -845,15 +848,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1330</v>
       </c>
       <c r="B2">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>99999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1400</v>
       </c>
@@ -861,7 +864,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>904</v>
       </c>
@@ -869,7 +872,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>955</v>
       </c>
@@ -877,7 +880,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2545</v>
       </c>
@@ -885,7 +888,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>970</v>
       </c>
@@ -893,7 +896,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1560</v>
       </c>
@@ -901,7 +904,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>1960</v>
       </c>
@@ -909,7 +912,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2000</v>
       </c>
@@ -917,7 +920,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2600</v>
       </c>
@@ -925,7 +928,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>3280</v>
       </c>
@@ -933,7 +936,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>16000</v>
       </c>
@@ -941,7 +944,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>980</v>
       </c>
@@ -949,7 +952,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>1250</v>
       </c>
@@ -957,7 +960,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>752</v>
       </c>
@@ -965,7 +968,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>815</v>
       </c>
@@ -973,7 +976,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>1147</v>
       </c>
@@ -981,7 +984,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>1500</v>
       </c>
@@ -989,7 +992,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>3587</v>
       </c>
@@ -997,7 +1000,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>1355</v>
       </c>
@@ -1005,7 +1008,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>1245</v>
       </c>
@@ -1013,7 +1016,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>1100</v>
       </c>
@@ -1021,7 +1024,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>1120</v>
       </c>
@@ -1029,7 +1032,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>1225</v>
       </c>
@@ -1037,7 +1040,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>1250</v>
       </c>
@@ -1045,7 +1048,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>1280</v>
       </c>
@@ -1053,7 +1056,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>1114</v>
       </c>
@@ -1061,7 +1064,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>1290</v>
       </c>
@@ -1069,7 +1072,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>1300</v>
       </c>
@@ -1077,7 +1080,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>1300</v>
       </c>
@@ -1085,7 +1088,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>1304</v>
       </c>
@@ -1093,7 +1096,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>1340</v>
       </c>
@@ -1101,7 +1104,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>1344</v>
       </c>
@@ -1109,7 +1112,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>1290</v>
       </c>
@@ -1117,7 +1120,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>1364</v>
       </c>
@@ -1125,7 +1128,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>1400</v>
       </c>
@@ -1133,7 +1136,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>1400</v>
       </c>
@@ -1141,7 +1144,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>1420</v>
       </c>
@@ -1149,7 +1152,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>1420</v>
       </c>
@@ -1157,7 +1160,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>1445</v>
       </c>
@@ -1165,7 +1168,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>1500</v>
       </c>
@@ -1173,7 +1176,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>1544</v>
       </c>
@@ -1181,7 +1184,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>1550</v>
       </c>
@@ -1189,7 +1192,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>1500</v>
       </c>
@@ -1197,7 +1200,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>1612</v>
       </c>
@@ -1205,7 +1208,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>1650</v>
       </c>
@@ -1213,7 +1216,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>1533</v>
       </c>
@@ -1221,7 +1224,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>1663</v>
       </c>
@@ -1229,7 +1232,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>1584</v>
       </c>
@@ -1237,7 +1240,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>1680</v>
       </c>
@@ -1245,7 +1248,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>1700</v>
       </c>
@@ -1253,7 +1256,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>1700</v>
       </c>
@@ -1261,7 +1264,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>1700</v>
       </c>
@@ -1269,7 +1272,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>1700</v>
       </c>
@@ -1277,7 +1280,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>1700</v>
       </c>
@@ -1285,7 +1288,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>1600</v>
       </c>
@@ -1293,7 +1296,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>1700</v>
       </c>
@@ -1301,7 +1304,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>1710</v>
       </c>
@@ -1309,7 +1312,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>1600</v>
       </c>
@@ -1317,7 +1320,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>1750</v>
       </c>
@@ -1325,7 +1328,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>1765</v>
       </c>
@@ -1333,7 +1336,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>1790</v>
       </c>
@@ -1341,7 +1344,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>1689</v>
       </c>
@@ -1349,7 +1352,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>1795</v>
       </c>
@@ -1357,7 +1360,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>1800</v>
       </c>
@@ -1365,7 +1368,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>1700</v>
       </c>
@@ -1373,7 +1376,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>1800</v>
       </c>
@@ -1381,7 +1384,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>1850</v>
       </c>
@@ -1389,7 +1392,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>1850</v>
       </c>
@@ -1397,7 +1400,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>1750</v>
       </c>
@@ -1405,7 +1408,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>1850</v>
       </c>
@@ -1413,7 +1416,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>1850</v>
       </c>
@@ -1421,7 +1424,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>1850</v>
       </c>
@@ -1429,7 +1432,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>1875</v>
       </c>
@@ -1437,7 +1440,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>1900</v>
       </c>
@@ -1445,7 +1448,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>1950</v>
       </c>
@@ -1453,7 +1456,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>1750</v>
       </c>
@@ -1461,7 +1464,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>2000</v>
       </c>
@@ -1469,7 +1472,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>2044</v>
       </c>
@@ -1477,7 +1480,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>2100</v>
       </c>
@@ -1485,7 +1488,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>2100</v>
       </c>
@@ -1493,7 +1496,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>2100</v>
       </c>
@@ -1501,7 +1504,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>2100</v>
       </c>
@@ -1509,7 +1512,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>2107</v>
       </c>
@@ -1517,7 +1520,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>2116</v>
       </c>
@@ -1525,7 +1528,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>2132</v>
       </c>
@@ -1533,7 +1536,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>2000</v>
       </c>
@@ -1541,7 +1544,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>2180</v>
       </c>
@@ -1549,7 +1552,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>2100</v>
       </c>
@@ -1557,7 +1560,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>2200</v>
       </c>
@@ -1565,7 +1568,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>2200</v>
       </c>
@@ -1573,7 +1576,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>2200</v>
       </c>
@@ -1581,7 +1584,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>2216</v>
       </c>
@@ -1589,7 +1592,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>2240</v>
       </c>
@@ -1597,7 +1600,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>2249</v>
       </c>
@@ -1605,7 +1608,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>2282</v>
       </c>
@@ -1613,7 +1616,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>2300</v>
       </c>
@@ -1621,7 +1624,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>2300</v>
       </c>
@@ -1629,7 +1632,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>2320</v>
       </c>
@@ -1637,7 +1640,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>2324</v>
       </c>
@@ -1645,7 +1648,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>2324</v>
       </c>
@@ -1653,7 +1656,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>2367</v>
       </c>
@@ -1661,7 +1664,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>2400</v>
       </c>
@@ -1669,7 +1672,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>2400</v>
       </c>
@@ -1677,7 +1680,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>2445</v>
       </c>
@@ -1685,7 +1688,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>2450</v>
       </c>
@@ -1693,7 +1696,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>2450</v>
       </c>
@@ -1701,7 +1704,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>2280</v>
       </c>
@@ -1709,7 +1712,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>2250</v>
       </c>
@@ -1717,7 +1720,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>2415</v>
       </c>
@@ -1725,7 +1728,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>2470</v>
       </c>
@@ -1733,7 +1736,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>2600</v>
       </c>
@@ -1741,7 +1744,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>2650</v>
       </c>
@@ -1749,7 +1752,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>2650</v>
       </c>
@@ -1757,7 +1760,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>2675</v>
       </c>
@@ -1765,7 +1768,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>2550</v>
       </c>
@@ -1773,7 +1776,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>2700</v>
       </c>
@@ -1781,7 +1784,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>2780</v>
       </c>
@@ -1789,7 +1792,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>2800</v>
       </c>
@@ -1797,7 +1800,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>2800</v>
       </c>
@@ -1805,7 +1808,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>2850</v>
       </c>
@@ -1813,7 +1816,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>2941</v>
       </c>
@@ -1821,7 +1824,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>2941</v>
       </c>
@@ -1829,7 +1832,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>3000</v>
       </c>
@@ -1837,7 +1840,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>2800</v>
       </c>
@@ -1845,7 +1848,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>3000</v>
       </c>
@@ -1853,7 +1856,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>3000</v>
       </c>
@@ -1861,7 +1864,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>3010</v>
       </c>
@@ -1869,7 +1872,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>2950</v>
       </c>
@@ -1877,7 +1880,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>3200</v>
       </c>
@@ -1885,7 +1888,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>3200</v>
       </c>
@@ -1893,7 +1896,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>3200</v>
       </c>
@@ -1901,7 +1904,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>3234</v>
       </c>
@@ -1909,7 +1912,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>3300</v>
       </c>
@@ -1917,7 +1920,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>3420</v>
       </c>
@@ -1925,7 +1928,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>3350</v>
       </c>
@@ -1933,7 +1936,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>3130</v>
       </c>
@@ -1941,7 +1944,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>3500</v>
       </c>
@@ -1949,7 +1952,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>3700</v>
       </c>
@@ -1957,7 +1960,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>3705</v>
       </c>
@@ -1965,7 +1968,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>3705</v>
       </c>
@@ -1973,7 +1976,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>3800</v>
       </c>
@@ -1981,7 +1984,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>3900</v>
       </c>
@@ -1989,7 +1992,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>3700</v>
       </c>
@@ -1997,7 +2000,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>4000</v>
       </c>
@@ -2005,7 +2008,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>4000</v>
       </c>
@@ -2013,7 +2016,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>3850</v>
       </c>
@@ -2021,7 +2024,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>4407</v>
       </c>
@@ -2029,7 +2032,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>5000</v>
       </c>
@@ -2037,7 +2040,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>5233</v>
       </c>
@@ -2045,7 +2048,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>5249</v>
       </c>
@@ -2053,7 +2056,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>5500</v>
       </c>
@@ -2061,7 +2064,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>5600</v>
       </c>
@@ -2069,7 +2072,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>5970</v>
       </c>
@@ -2077,7 +2080,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>6000</v>
       </c>
@@ -2085,7 +2088,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>6000</v>
       </c>
@@ -2093,7 +2096,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>7450</v>
       </c>
@@ -2101,7 +2104,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>7280</v>
       </c>
@@ -2109,7 +2112,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>10000</v>
       </c>
@@ -2117,7 +2120,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>14300</v>
       </c>
@@ -2125,7 +2128,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>15000</v>
       </c>
@@ -2133,7 +2136,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>775</v>
       </c>
@@ -2141,7 +2144,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>816</v>
       </c>
@@ -2149,7 +2152,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>800</v>
       </c>
@@ -2157,7 +2160,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>900</v>
       </c>
@@ -2165,7 +2168,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>900</v>
       </c>
@@ -2173,7 +2176,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>888</v>
       </c>
@@ -2181,7 +2184,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>960</v>
       </c>
@@ -2189,7 +2192,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>966</v>
       </c>
@@ -2197,7 +2200,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>1000</v>
       </c>
@@ -2205,7 +2208,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>1040</v>
       </c>
@@ -2213,7 +2216,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>1048</v>
       </c>
@@ -2221,7 +2224,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>1072</v>
       </c>
@@ -2229,7 +2232,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>1090</v>
       </c>
@@ -2237,7 +2240,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>1100</v>
       </c>
@@ -2245,7 +2248,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>1150</v>
       </c>
@@ -2253,7 +2256,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>1180</v>
       </c>
@@ -2261,7 +2264,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>1200</v>
       </c>
@@ -2269,7 +2272,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>1200</v>
       </c>
@@ -2277,7 +2280,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>1200</v>
       </c>
@@ -2285,7 +2288,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>1200</v>
       </c>
@@ -2293,7 +2296,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>1218</v>
       </c>
@@ -2301,7 +2304,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>1250</v>
       </c>
@@ -2309,7 +2312,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>1250</v>
       </c>
@@ -2317,7 +2320,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>1300</v>
       </c>
@@ -2325,7 +2328,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>1329</v>
       </c>
@@ -2333,7 +2336,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>1340</v>
       </c>
@@ -2341,7 +2344,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>1500</v>
       </c>
@@ -2349,7 +2352,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>1500</v>
       </c>
@@ -2357,7 +2360,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>1550</v>
       </c>
@@ -2365,7 +2368,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>1900</v>
       </c>
@@ -2373,7 +2376,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>1910</v>
       </c>
@@ -2381,7 +2384,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>2700</v>
       </c>
@@ -2389,7 +2392,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>2950</v>
       </c>
@@ -2397,7 +2400,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A196">
         <v>2700</v>
       </c>
@@ -2405,7 +2408,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A197">
         <v>6500</v>
       </c>
@@ -2413,7 +2416,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A198">
         <v>7500</v>
       </c>
@@ -2421,7 +2424,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A199">
         <v>1048</v>
       </c>
@@ -2429,7 +2432,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A200">
         <v>1650</v>
       </c>
@@ -2437,7 +2440,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A201">
         <v>1100</v>
       </c>
@@ -2445,7 +2448,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A202">
         <v>1133</v>
       </c>
@@ -2453,7 +2456,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A203">
         <v>1500</v>
       </c>
@@ -2461,7 +2464,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A204">
         <v>1530</v>
       </c>
@@ -2469,7 +2472,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A205">
         <v>1520</v>
       </c>
@@ -2477,7 +2480,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A206">
         <v>1600</v>
       </c>
@@ -2485,7 +2488,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A207">
         <v>1620</v>
       </c>
@@ -2493,7 +2496,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A208">
         <v>1700</v>
       </c>
@@ -2501,7 +2504,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A209">
         <v>1820</v>
       </c>
@@ -2509,7 +2512,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A210">
         <v>1850</v>
       </c>
@@ -2517,7 +2520,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A211">
         <v>1939</v>
       </c>
@@ -2525,7 +2528,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A212">
         <v>1958</v>
       </c>
@@ -2533,7 +2536,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A213">
         <v>1750</v>
       </c>
@@ -2541,7 +2544,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A214">
         <v>2090</v>
       </c>
@@ -2549,7 +2552,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A215">
         <v>2102</v>
       </c>
@@ -2557,7 +2560,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A216">
         <v>2162</v>
       </c>
@@ -2565,7 +2568,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A217">
         <v>2150</v>
       </c>
@@ -2573,7 +2576,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A218">
         <v>2250</v>
       </c>
@@ -2581,7 +2584,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A219">
         <v>2359</v>
       </c>
@@ -2589,7 +2592,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A220">
         <v>2400</v>
       </c>
@@ -2597,7 +2600,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A221">
         <v>2459</v>
       </c>
@@ -2605,7 +2608,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A222">
         <v>2400</v>
       </c>
@@ -2613,7 +2616,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A223">
         <v>2459</v>
       </c>
@@ -2621,7 +2624,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A224">
         <v>2535</v>
       </c>
@@ -2629,7 +2632,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A225">
         <v>2650</v>
       </c>
@@ -2637,7 +2640,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A226">
         <v>2650</v>
       </c>
@@ -2645,7 +2648,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A227">
         <v>2900</v>
       </c>
@@ -2653,7 +2656,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A228">
         <v>2950</v>
       </c>
@@ -2661,7 +2664,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A229">
         <v>3000</v>
       </c>
@@ -2669,7 +2672,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A230">
         <v>3234</v>
       </c>
@@ -2677,7 +2680,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A231">
         <v>3243</v>
       </c>
@@ -2685,7 +2688,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A232">
         <v>4200</v>
       </c>
@@ -2693,7 +2696,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A233">
         <v>4938</v>
       </c>
@@ -2701,7 +2704,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A234">
         <v>1100</v>
       </c>
@@ -2709,7 +2712,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A235">
         <v>700</v>
       </c>
@@ -2717,7 +2720,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A236">
         <v>880</v>
       </c>
@@ -2725,7 +2728,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A237">
         <v>930</v>
       </c>
@@ -2733,7 +2736,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A238">
         <v>940</v>
       </c>
@@ -2741,7 +2744,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A239">
         <v>950</v>
       </c>
@@ -2749,7 +2752,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A240">
         <v>950</v>
       </c>
@@ -2757,7 +2760,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A241">
         <v>1000</v>
       </c>
@@ -2765,7 +2768,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A242">
         <v>1380</v>
       </c>
@@ -2773,7 +2776,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A243">
         <v>1700</v>
       </c>
@@ -2781,7 +2784,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A244">
         <v>1740</v>
       </c>
@@ -2789,7 +2792,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A245">
         <v>2367</v>
       </c>
@@ -2797,7 +2800,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A246">
         <v>2800</v>
       </c>
@@ -2805,7 +2808,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A247">
         <v>3000</v>
       </c>
@@ -2813,7 +2816,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A248">
         <v>1365</v>
       </c>
@@ -2821,7 +2824,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A249">
         <v>855</v>
       </c>
@@ -2829,7 +2832,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A250">
         <v>1250</v>
       </c>
@@ -2837,7 +2840,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A251">
         <v>2132</v>
       </c>
@@ -2845,7 +2848,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A252">
         <v>2840</v>
       </c>
@@ -2853,7 +2856,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A253">
         <v>2614</v>
       </c>
@@ -2861,7 +2864,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A254">
         <v>693</v>
       </c>
@@ -2869,7 +2872,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A255">
         <v>1000</v>
       </c>
@@ -2877,7 +2880,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A256">
         <v>2200</v>
       </c>
@@ -2885,7 +2888,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A257">
         <v>1900</v>
       </c>
@@ -2893,7 +2896,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A258">
         <v>2347</v>
       </c>
@@ -2901,7 +2904,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A259">
         <v>3460</v>
       </c>
@@ -2909,7 +2912,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A260">
         <v>1100</v>
       </c>
@@ -2917,7 +2920,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A261">
         <v>1200</v>
       </c>
@@ -2925,7 +2928,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A262">
         <v>1313</v>
       </c>
@@ -2933,7 +2936,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A263">
         <v>1490</v>
       </c>
@@ -2941,7 +2944,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A264">
         <v>1850</v>
       </c>
@@ -2949,7 +2952,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A265">
         <v>1880</v>
       </c>
@@ -2957,7 +2960,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A266">
         <v>1900</v>
       </c>
@@ -2965,7 +2968,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A267">
         <v>1900</v>
       </c>
@@ -2973,7 +2976,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A268">
         <v>2008</v>
       </c>
@@ -2981,7 +2984,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A269">
         <v>2960</v>
       </c>
@@ -2989,7 +2992,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A270">
         <v>3200</v>
       </c>
@@ -2997,7 +3000,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A271">
         <v>3220</v>
       </c>
@@ -3005,7 +3008,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A272">
         <v>3380</v>
       </c>
@@ -3013,7 +3016,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A273">
         <v>3950</v>
       </c>
@@ -3021,7 +3024,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A274">
         <v>645</v>
       </c>
@@ -3029,7 +3032,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A275">
         <v>682</v>
       </c>
@@ -3037,7 +3040,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A276">
         <v>745</v>
       </c>
@@ -3045,7 +3048,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A277">
         <v>1780</v>
       </c>
@@ -3053,7 +3056,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A278">
         <v>1595</v>
       </c>
@@ -3061,7 +3064,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A279">
         <v>4200</v>
       </c>
@@ -3069,7 +3072,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A280">
         <v>9500</v>
       </c>
@@ -3077,7 +3080,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A281">
         <v>973</v>
       </c>
@@ -3085,7 +3088,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A282">
         <v>1100</v>
       </c>
@@ -3093,7 +3096,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A283">
         <v>1851</v>
       </c>
@@ -3101,7 +3104,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A284">
         <v>1105</v>
       </c>
@@ -3109,7 +3112,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A285">
         <v>1200</v>
       </c>
@@ -3117,7 +3120,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A286">
         <v>1704</v>
       </c>
@@ -3125,7 +3128,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A287">
         <v>800</v>
       </c>
@@ -3133,7 +3136,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A288">
         <v>985</v>
       </c>
@@ -3141,7 +3144,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A289">
         <v>1000</v>
       </c>
@@ -3149,7 +3152,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A290">
         <v>1006</v>
       </c>
@@ -3157,7 +3160,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A291">
         <v>1100</v>
       </c>
@@ -3165,7 +3168,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A292">
         <v>1220</v>
       </c>
@@ -3173,7 +3176,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A293">
         <v>1230</v>
       </c>
@@ -3181,7 +3184,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A294">
         <v>1270</v>
       </c>
@@ -3189,7 +3192,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A295">
         <v>1280</v>
       </c>
@@ -3197,7 +3200,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A296">
         <v>1290</v>
       </c>
@@ -3205,7 +3208,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A297">
         <v>1300</v>
       </c>
@@ -3213,7 +3216,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A298">
         <v>1340</v>
       </c>
@@ -3221,7 +3224,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A299">
         <v>1350</v>
       </c>
@@ -3229,7 +3232,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A300">
         <v>1380</v>
       </c>
@@ -3237,7 +3240,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A301">
         <v>1390</v>
       </c>
@@ -3245,7 +3248,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A302">
         <v>1390</v>
       </c>
@@ -3253,7 +3256,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A303">
         <v>1400</v>
       </c>
@@ -3261,7 +3264,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A304">
         <v>1400</v>
       </c>
@@ -3269,7 +3272,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A305">
         <v>1400</v>
       </c>
@@ -3277,7 +3280,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A306">
         <v>1500</v>
       </c>
@@ -3285,7 +3288,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A307">
         <v>1550</v>
       </c>
@@ -3293,7 +3296,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A308">
         <v>1570</v>
       </c>
@@ -3301,7 +3304,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A309">
         <v>1590</v>
       </c>
@@ -3309,7 +3312,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A310">
         <v>1600</v>
       </c>
@@ -3317,7 +3320,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A311">
         <v>1600</v>
       </c>
@@ -3325,7 +3328,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="312" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A312">
         <v>1627</v>
       </c>
@@ -3333,7 +3336,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="313" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A313">
         <v>1690</v>
       </c>
@@ -3341,7 +3344,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="314" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A314">
         <v>1696</v>
       </c>
@@ -3349,7 +3352,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="315" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A315">
         <v>1700</v>
       </c>
@@ -3357,7 +3360,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="316" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A316">
         <v>1700</v>
       </c>
@@ -3365,7 +3368,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="317" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A317">
         <v>1705</v>
       </c>
@@ -3373,7 +3376,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="318" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A318">
         <v>1750</v>
       </c>
@@ -3381,7 +3384,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="319" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A319">
         <v>1750</v>
       </c>
@@ -3389,7 +3392,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="320" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A320">
         <v>1800</v>
       </c>
@@ -3397,7 +3400,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="321" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A321">
         <v>1830</v>
       </c>
@@ -3405,7 +3408,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="322" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A322">
         <v>1726</v>
       </c>
@@ -3413,7 +3416,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="323" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A323">
         <v>1850</v>
       </c>
@@ -3421,7 +3424,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="324" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A324">
         <v>1875</v>
       </c>
@@ -3429,7 +3432,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="325" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A325">
         <v>1900</v>
       </c>
@@ -3437,7 +3440,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="326" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A326">
         <v>1930</v>
       </c>
@@ -3445,7 +3448,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="327" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A327">
         <v>1990</v>
       </c>
@@ -3453,7 +3456,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="328" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A328">
         <v>2000</v>
       </c>
@@ -3461,7 +3464,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="329" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A329">
         <v>2044</v>
       </c>
@@ -3469,7 +3472,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="330" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A330">
         <v>2060</v>
       </c>
@@ -3477,7 +3480,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="331" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A331">
         <v>2100</v>
       </c>
@@ -3485,7 +3488,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="332" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A332">
         <v>1922</v>
       </c>
@@ -3493,7 +3496,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="333" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A333">
         <v>2190</v>
       </c>
@@ -3501,7 +3504,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="334" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A334">
         <v>2250</v>
       </c>
@@ -3509,7 +3512,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="335" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A335">
         <v>2250</v>
       </c>
@@ -3517,7 +3520,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="336" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A336">
         <v>2300</v>
       </c>
@@ -3525,7 +3528,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="337" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A337">
         <v>2300</v>
       </c>
@@ -3533,7 +3536,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="338" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A338">
         <v>2309</v>
       </c>
@@ -3541,7 +3544,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="339" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A339">
         <v>2450</v>
       </c>
@@ -3549,7 +3552,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="340" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A340">
         <v>2471</v>
       </c>
@@ -3557,7 +3560,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="341" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A341">
         <v>2500</v>
       </c>
@@ -3565,7 +3568,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="342" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A342">
         <v>2500</v>
       </c>
@@ -3573,7 +3576,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="343" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A343">
         <v>2500</v>
       </c>
@@ -3581,7 +3584,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="344" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A344">
         <v>2500</v>
       </c>
@@ -3589,7 +3592,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="345" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A345">
         <v>2587</v>
       </c>
@@ -3597,7 +3600,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="346" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A346">
         <v>2700</v>
       </c>
@@ -3605,7 +3608,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="347" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A347">
         <v>2700</v>
       </c>
@@ -3613,7 +3616,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="348" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A348">
         <v>2750</v>
       </c>
@@ -3621,7 +3624,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="349" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A349">
         <v>2800</v>
       </c>
@@ -3629,7 +3632,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="350" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A350">
         <v>2800</v>
       </c>
@@ -3637,7 +3640,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="351" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A351">
         <v>2886</v>
       </c>
@@ -3645,7 +3648,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="352" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A352">
         <v>2900</v>
       </c>
@@ -3653,7 +3656,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="353" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A353">
         <v>3000</v>
       </c>
@@ -3661,7 +3664,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="354" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A354">
         <v>3000</v>
       </c>
@@ -3669,7 +3672,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="355" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A355">
         <v>3000</v>
       </c>
@@ -3677,7 +3680,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="356" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A356">
         <v>2840</v>
       </c>
@@ -3685,7 +3688,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="357" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A357">
         <v>3100</v>
       </c>
@@ -3693,7 +3696,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="358" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A358">
         <v>3179</v>
       </c>
@@ -3701,7 +3704,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="359" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A359">
         <v>3200</v>
       </c>
@@ -3709,7 +3712,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="360" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A360">
         <v>3200</v>
       </c>
@@ -3717,7 +3720,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="361" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A361">
         <v>3000</v>
       </c>
@@ -3725,7 +3728,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="362" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A362">
         <v>3200</v>
       </c>
@@ -3733,7 +3736,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="363" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A363">
         <v>3300</v>
       </c>
@@ -3741,7 +3744,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="364" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A364">
         <v>3300</v>
       </c>
@@ -3749,7 +3752,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="365" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A365">
         <v>3300</v>
       </c>
@@ -3757,7 +3760,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="366" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A366">
         <v>3460</v>
       </c>
@@ -3765,7 +3768,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="367" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A367">
         <v>3500</v>
       </c>
@@ -3773,7 +3776,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="368" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A368">
         <v>3650</v>
       </c>
@@ -3781,7 +3784,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="369" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A369">
         <v>3660</v>
       </c>
@@ -3789,7 +3792,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="370" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A370">
         <v>3680</v>
       </c>
@@ -3797,7 +3800,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="371" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A371">
         <v>3700</v>
       </c>
@@ -3805,7 +3808,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="372" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A372">
         <v>4500</v>
       </c>
@@ -3813,7 +3816,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="373" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A373">
         <v>4600</v>
       </c>
@@ -3821,7 +3824,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="374" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A374">
         <v>4930</v>
       </c>
@@ -3829,7 +3832,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="375" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A375">
         <v>4937</v>
       </c>
@@ -3837,7 +3840,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="376" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A376">
         <v>5100</v>
       </c>
@@ -3845,7 +3848,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="377" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A377">
         <v>5233</v>
       </c>
@@ -3853,7 +3856,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="378" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A378">
         <v>5249</v>
       </c>
@@ -3861,7 +3864,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="379" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A379">
         <v>5000</v>
       </c>
@@ -3869,7 +3872,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="380" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A380">
         <v>5307</v>
       </c>
@@ -3877,7 +3880,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="381" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A381">
         <v>5950</v>
       </c>
@@ -3885,7 +3888,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="382" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A382">
         <v>7450</v>
       </c>
@@ -3893,7 +3896,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="383" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A383">
         <v>25000</v>
       </c>
@@ -3901,7 +3904,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="384" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A384">
         <v>730</v>
       </c>
@@ -3909,7 +3912,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="385" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A385">
         <v>738</v>
       </c>
@@ -3917,7 +3920,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="386" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A386">
         <v>821</v>
       </c>
@@ -3925,7 +3928,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="387" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A387">
         <v>850</v>
       </c>
@@ -3933,7 +3936,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="388" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A388">
         <v>854</v>
       </c>
@@ -3941,7 +3944,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="389" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A389">
         <v>910</v>
       </c>
@@ -3949,7 +3952,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="390" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A390">
         <v>940</v>
       </c>
@@ -3957,7 +3960,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="391" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A391">
         <v>950</v>
       </c>
@@ -3965,7 +3968,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="392" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A392">
         <v>950</v>
       </c>
@@ -3973,7 +3976,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="393" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A393">
         <v>976</v>
       </c>
@@ -3981,7 +3984,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="394" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A394">
         <v>990</v>
       </c>
@@ -3989,7 +3992,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="395" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A395">
         <v>1190</v>
       </c>
@@ -3997,7 +4000,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="396" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A396">
         <v>1095</v>
       </c>
@@ -4005,7 +4008,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="397" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A397">
         <v>1210</v>
       </c>
@@ -4013,7 +4016,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="398" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A398">
         <v>1250</v>
       </c>
@@ -4021,7 +4024,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="399" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A399">
         <v>1255</v>
       </c>
@@ -4029,7 +4032,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="400" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A400">
         <v>1255</v>
       </c>
@@ -4037,7 +4040,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="401" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A401">
         <v>1300</v>
       </c>
@@ -4045,7 +4048,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="402" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A402">
         <v>1380</v>
       </c>
@@ -4053,7 +4056,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="403" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A403">
         <v>1500</v>
       </c>
@@ -4061,7 +4064,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="404" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A404">
         <v>1500</v>
       </c>
@@ -4069,7 +4072,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="405" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A405">
         <v>1510</v>
       </c>
@@ -4077,7 +4080,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="406" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A406">
         <v>1550</v>
       </c>
@@ -4085,7 +4088,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="407" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A407">
         <v>1560</v>
       </c>
@@ -4093,7 +4096,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="408" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A408">
         <v>1580</v>
       </c>
@@ -4101,7 +4104,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="409" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A409">
         <v>1640</v>
       </c>
@@ -4109,7 +4112,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="410" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A410">
         <v>1650</v>
       </c>
@@ -4117,7 +4120,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="411" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A411">
         <v>1665</v>
       </c>
@@ -4125,7 +4128,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="412" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A412">
         <v>1865</v>
       </c>
@@ -4133,7 +4136,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="413" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A413">
         <v>1920</v>
       </c>
@@ -4141,7 +4144,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="414" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A414">
         <v>2000</v>
       </c>
@@ -4149,7 +4152,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="415" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A415">
         <v>2000</v>
       </c>
@@ -4157,7 +4160,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="416" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A416">
         <v>2130</v>
       </c>
@@ -4165,7 +4168,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="417" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A417">
         <v>2200</v>
       </c>
@@ -4173,7 +4176,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="418" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A418">
         <v>2300</v>
       </c>
@@ -4181,7 +4184,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="419" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A419">
         <v>2500</v>
       </c>
@@ -4189,7 +4192,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="420" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A420">
         <v>3750</v>
       </c>
@@ -4197,7 +4200,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="421" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A421">
         <v>3800</v>
       </c>
@@ -4205,7 +4208,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="422" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A422">
         <v>4100</v>
       </c>
@@ -4213,7 +4216,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="423" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A423">
         <v>4300</v>
       </c>
@@ -4221,7 +4224,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="424" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A424">
         <v>4500</v>
       </c>
@@ -4229,7 +4232,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="425" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A425">
         <v>15000</v>
       </c>
@@ -4237,7 +4240,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="426" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A426">
         <v>637</v>
       </c>
@@ -4245,7 +4248,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="427" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A427">
         <v>680</v>
       </c>
@@ -4253,7 +4256,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="428" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A428">
         <v>700</v>
       </c>
@@ -4261,7 +4264,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="429" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A429">
         <v>960</v>
       </c>
@@ -4269,7 +4272,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="430" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A430">
         <v>775</v>
       </c>
@@ -4277,7 +4280,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="431" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A431">
         <v>1250</v>
       </c>
@@ -4285,7 +4288,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="432" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A432">
         <v>1380</v>
       </c>
@@ -4293,7 +4296,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="433" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A433">
         <v>1630</v>
       </c>
@@ -4301,7 +4304,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="434" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A434">
         <v>1650</v>
       </c>
@@ -4309,7 +4312,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="435" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A435">
         <v>1765</v>
       </c>
@@ -4317,7 +4320,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="436" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A436">
         <v>1900</v>
       </c>
@@ -4325,7 +4328,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="437" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A437">
         <v>1787</v>
       </c>
@@ -4333,7 +4336,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="438" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A438">
         <v>1920</v>
       </c>
@@ -4341,7 +4344,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="439" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A439">
         <v>2132</v>
       </c>
@@ -4349,7 +4352,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="440" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A440">
         <v>2132</v>
       </c>
@@ -4357,7 +4360,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="441" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A441">
         <v>2200</v>
       </c>
@@ -4365,7 +4368,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="442" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A442">
         <v>2272</v>
       </c>
@@ -4373,7 +4376,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="443" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A443">
         <v>2400</v>
       </c>
@@ -4381,7 +4384,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="444" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A444">
         <v>2350</v>
       </c>
@@ -4389,7 +4392,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="445" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A445">
         <v>2657</v>
       </c>
@@ -4397,7 +4400,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="446" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A446">
         <v>2999</v>
       </c>
@@ -4405,7 +4408,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="447" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A447">
         <v>3000</v>
       </c>
@@ -4413,7 +4416,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="448" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A448">
         <v>3460</v>
       </c>
@@ -4421,7 +4424,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="449" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A449">
         <v>3600</v>
       </c>
@@ -4429,7 +4432,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="450" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A450">
         <v>16000</v>
       </c>
@@ -4437,7 +4440,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="451" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A451">
         <v>20000</v>
       </c>
@@ -4445,7 +4448,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="452" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A452">
         <v>2290</v>
       </c>
@@ -4453,7 +4456,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="453" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A453">
         <v>2927</v>
       </c>
@@ -4461,7 +4464,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="454" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A454">
         <v>700</v>
       </c>
@@ -4469,7 +4472,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="455" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A455">
         <v>755</v>
       </c>
@@ -4477,7 +4480,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="456" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A456">
         <v>990</v>
       </c>
@@ -4485,7 +4488,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="457" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A457">
         <v>1058</v>
       </c>
@@ -4493,7 +4496,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="458" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A458">
         <v>1095</v>
       </c>
@@ -4501,7 +4504,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="459" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A459">
         <v>1100</v>
       </c>
@@ -4509,7 +4512,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="460" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A460">
         <v>1280</v>
       </c>
@@ -4517,7 +4520,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="461" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A461">
         <v>1350</v>
       </c>
@@ -4525,7 +4528,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="462" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A462">
         <v>1400</v>
       </c>
@@ -4533,7 +4536,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="463" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A463">
         <v>1550</v>
       </c>
@@ -4541,7 +4544,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="464" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A464">
         <v>1900</v>
       </c>
@@ -4549,7 +4552,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="465" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A465">
         <v>2200</v>
       </c>
@@ -4557,7 +4560,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="466" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A466">
         <v>3140</v>
       </c>
@@ -4565,7 +4568,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="467" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A467">
         <v>600</v>
       </c>
@@ -4573,7 +4576,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="468" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A468">
         <v>600</v>
       </c>
@@ -4581,7 +4584,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="469" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A469">
         <v>890</v>
       </c>
@@ -4589,7 +4592,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="470" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A470">
         <v>1050</v>
       </c>
@@ -4597,7 +4600,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="471" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A471">
         <v>1100</v>
       </c>
@@ -4605,7 +4608,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="472" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A472">
         <v>1650</v>
       </c>
@@ -4613,7 +4616,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="473" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A473">
         <v>2090</v>
       </c>
@@ -4621,7 +4624,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="474" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A474">
         <v>6300</v>
       </c>
@@ -4629,7 +4632,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="475" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A475">
         <v>930</v>
       </c>
@@ -4637,7 +4640,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="476" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A476">
         <v>1980</v>
       </c>
@@ -4645,7 +4648,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="477" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A477">
         <v>885</v>
       </c>
@@ -4653,7 +4656,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="478" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A478">
         <v>1060</v>
       </c>
@@ -4661,7 +4664,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="479" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A479">
         <v>1200</v>
       </c>
@@ -4669,7 +4672,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="480" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A480">
         <v>1500</v>
       </c>
@@ -4677,7 +4680,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="481" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A481">
         <v>890</v>
       </c>
@@ -4685,7 +4688,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="482" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A482">
         <v>1300</v>
       </c>
@@ -4693,7 +4696,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="483" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A483">
         <v>900</v>
       </c>
@@ -4701,7 +4704,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="484" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A484">
         <v>1150</v>
       </c>
@@ -4709,7 +4712,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="485" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A485">
         <v>840</v>
       </c>
@@ -4717,7 +4720,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="486" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A486">
         <v>928</v>
       </c>
@@ -4725,7 +4728,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="487" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A487">
         <v>981</v>
       </c>
@@ -4733,7 +4736,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="488" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A488">
         <v>1180</v>
       </c>
@@ -4741,7 +4744,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="489" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A489">
         <v>1198</v>
       </c>
@@ -4749,7 +4752,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="490" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A490">
         <v>1450</v>
       </c>
@@ -4757,7 +4760,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="491" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A491">
         <v>3000</v>
       </c>
@@ -4765,7 +4768,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="492" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A492">
         <v>875</v>
       </c>
@@ -4773,7 +4776,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="493" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A493">
         <v>998</v>
       </c>
@@ -4781,7 +4784,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="494" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A494">
         <v>1000</v>
       </c>
@@ -4789,7 +4792,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="495" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A495">
         <v>1250</v>
       </c>
@@ -4797,7 +4800,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="496" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A496">
         <v>1480</v>
       </c>
@@ -4805,7 +4808,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="497" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A497">
         <v>1900</v>
       </c>
@@ -4813,7 +4816,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="498" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A498">
         <v>2500</v>
       </c>
@@ -4821,7 +4824,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="499" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A499">
         <v>950</v>
       </c>
@@ -4829,7 +4832,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="500" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A500">
         <v>1180</v>
       </c>
@@ -4837,7 +4840,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="501" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A501">
         <v>1550</v>
       </c>
@@ -4845,7 +4848,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="502" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A502">
         <v>1333</v>
       </c>
@@ -4853,7 +4856,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="503" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A503">
         <v>1580</v>
       </c>
@@ -4861,7 +4864,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="504" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A504">
         <v>850</v>
       </c>
@@ -4869,7 +4872,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="505" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A505">
         <v>488</v>
       </c>
@@ -4877,7 +4880,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="506" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A506">
         <v>619</v>
       </c>
@@ -4885,7 +4888,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="507" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A507">
         <v>820</v>
       </c>
@@ -4893,7 +4896,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="508" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A508">
         <v>1350</v>
       </c>
@@ -4901,7 +4904,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="509" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A509">
         <v>1475</v>
       </c>
@@ -4909,7 +4912,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="510" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A510">
         <v>1397</v>
       </c>
@@ -4917,7 +4920,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="511" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A511">
         <v>1460</v>
       </c>
@@ -4925,7 +4928,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="512" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A512">
         <v>3200</v>
       </c>
@@ -4933,7 +4936,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="513" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A513">
         <v>5000</v>
       </c>
@@ -4941,7 +4944,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="514" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A514">
         <v>790</v>
       </c>
@@ -4949,7 +4952,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="515" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A515">
         <v>800</v>
       </c>
@@ -4957,7 +4960,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="516" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A516">
         <v>810</v>
       </c>
@@ -4965,7 +4968,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="517" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A517">
         <v>940</v>
       </c>
@@ -4973,7 +4976,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="518" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A518">
         <v>898</v>
       </c>
@@ -4981,7 +4984,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="519" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A519">
         <v>1137</v>
       </c>
@@ -4989,7 +4992,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="520" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A520">
         <v>810</v>
       </c>
@@ -4997,7 +5000,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="521" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A521">
         <v>940</v>
       </c>
@@ -5005,7 +5008,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="522" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A522">
         <v>898</v>
       </c>
@@ -5013,7 +5016,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="523" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A523">
         <v>1137</v>
       </c>
@@ -5021,7 +5024,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="524" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A524">
         <v>1600</v>
       </c>
@@ -5029,7 +5032,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="525" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A525">
         <v>2097</v>
       </c>
@@ -5037,7 +5040,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="526" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A526">
         <v>733</v>
       </c>
@@ -5045,7 +5048,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="527" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A527">
         <v>12000</v>
       </c>
@@ -5053,7 +5056,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="528" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A528">
         <v>1166</v>
       </c>
@@ -5061,7 +5064,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="529" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A529">
         <v>1500</v>
       </c>
@@ -5069,7 +5072,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="530" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A530">
         <v>1900</v>
       </c>
@@ -5077,7 +5080,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="531" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A531">
         <v>1900</v>
       </c>
@@ -5085,7 +5088,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="532" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A532">
         <v>1950</v>
       </c>
@@ -5093,7 +5096,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="533" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A533">
         <v>2000</v>
       </c>
@@ -5101,7 +5104,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="534" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A534">
         <v>2950</v>
       </c>
@@ -5109,7 +5112,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="535" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A535">
         <v>1200</v>
       </c>
@@ -5117,7 +5120,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="536" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A536">
         <v>1300</v>
       </c>
@@ -5125,7 +5128,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="537" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A537">
         <v>1400</v>
       </c>
@@ -5133,7 +5136,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="538" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A538">
         <v>1690</v>
       </c>
@@ -5141,7 +5144,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="539" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A539">
         <v>1940</v>
       </c>
@@ -5149,7 +5152,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="540" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A540">
         <v>2100</v>
       </c>
@@ -5157,7 +5160,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="541" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A541">
         <v>2490</v>
       </c>
@@ -5165,7 +5168,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="542" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A542">
         <v>1490</v>
       </c>
@@ -5173,7 +5176,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="543" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A543">
         <v>2020</v>
       </c>
@@ -5181,7 +5184,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="544" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A544">
         <v>2050</v>
       </c>
@@ -5189,7 +5192,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="545" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A545">
         <v>1220</v>
       </c>
@@ -5197,7 +5200,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="546" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A546">
         <v>1610</v>
       </c>
